--- a/data/trans_orig/FIN_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Estudios-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>50,17</t>
+          <t>52,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>52,58</t>
+          <t>48,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,75</t>
+          <t>48,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,94</t>
+          <t>46,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,9</t>
+          <t>51,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,63</t>
+          <t>47,8</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,0; 52,64</t>
+          <t>49,78; 55,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,71; 54,43</t>
+          <t>45,85; 50,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,3; 53,58</t>
+          <t>43,76; 52,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,19; 51,53</t>
+          <t>40,77; 50,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,38; 51,82</t>
+          <t>48,7; 53,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,91; 53,24</t>
+          <t>45,47; 50,16</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,12</t>
+          <t>46,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,3</t>
+          <t>43,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,56</t>
+          <t>39,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,07</t>
+          <t>39,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,29</t>
+          <t>44,77</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,99</t>
+          <t>42,15</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,7; 47,58</t>
+          <t>42,17; 48,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,69; 46,3</t>
+          <t>42,3; 45,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,52; 42,42</t>
+          <t>36,79; 41,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,17; 39,66</t>
+          <t>37,82; 41,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,13; 45,6</t>
+          <t>40,92; 47,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,68; 43,9</t>
+          <t>40,97; 43,28</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,67</t>
+          <t>41,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,78</t>
+          <t>39,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,95</t>
+          <t>38,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,92</t>
+          <t>36,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,99</t>
+          <t>39,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,27</t>
+          <t>37,99</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,87; 44,68</t>
+          <t>38,77; 43,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,71; 43,95</t>
+          <t>36,78; 42,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,36; 40,82</t>
+          <t>35,37; 40,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,94; 39,98</t>
+          <t>34,11; 39,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,09; 42,03</t>
+          <t>38,16; 41,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,65; 41,81</t>
+          <t>36,11; 39,88</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,24</t>
+          <t>46,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,85</t>
+          <t>43,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,67</t>
+          <t>39,93</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,26</t>
+          <t>39,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,4</t>
+          <t>44,49</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,61</t>
+          <t>42,0</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,08; 47,48</t>
+          <t>43,64; 48,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,8; 46,87</t>
+          <t>42,54; 44,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,15; 42,3</t>
+          <t>38,32; 41,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,99; 40,5</t>
+          <t>37,81; 40,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,41; 45,39</t>
+          <t>42,27; 47,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,77; 44,54</t>
+          <t>41,06; 43,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/FIN_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Estudios-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media en la que dejaron de fumar tabaco en años</t>
+          <t>Edad media en la que dejaron de fumar tabaco en años (tasa de respuesta: 97,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/FIN_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Estudios-trans_orig.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,78; 55,29</t>
+          <t>49,65; 55,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,76; 52,43</t>
+          <t>43,69; 52,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,7; 53,47</t>
+          <t>48,97; 53,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,17; 48,49</t>
+          <t>42,04; 48,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,79; 41,07</t>
+          <t>36,6; 41,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,92; 47,56</t>
+          <t>40,75; 47,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,77; 43,22</t>
+          <t>38,58; 43,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,37; 40,48</t>
+          <t>35,67; 40,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,16; 41,61</t>
+          <t>38,25; 41,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,64; 48,08</t>
+          <t>43,61; 47,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,32; 41,57</t>
+          <t>38,4; 41,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,27; 47,16</t>
+          <t>42,19; 46,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_orig/FIN_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Estudios-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>52,58</t>
+          <t>52,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,15</t>
+          <t>48,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,32</t>
+          <t>51,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,65; 55,16</t>
+          <t>49,55; 55,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,69; 52,08</t>
+          <t>43,72; 52,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,97; 53,77</t>
+          <t>49,11; 53,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,34</t>
+          <t>42,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,16</t>
+          <t>39,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,77</t>
+          <t>41,26</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,04; 48,38</t>
+          <t>40,72; 44,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,6; 41,04</t>
+          <t>36,76; 41,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,75; 47,7</t>
+          <t>39,79; 42,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,13</t>
+          <t>41,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38,03</t>
+          <t>37,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,58; 43,44</t>
+          <t>38,88; 43,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,67; 40,64</t>
+          <t>35,32; 40,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,25; 41,62</t>
+          <t>38,19; 41,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,08</t>
+          <t>43,99</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,93</t>
+          <t>39,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,49</t>
+          <t>42,47</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,61; 47,96</t>
+          <t>42,72; 45,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,4; 41,51</t>
+          <t>38,32; 41,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,19; 46,87</t>
+          <t>41,49; 43,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
